--- a/RESULT/ALLINONE.xlsx
+++ b/RESULT/ALLINONE.xlsx
@@ -28,31 +28,31 @@
     <t>cCEST</t>
   </si>
   <si>
-    <t>8186 2704 3206</t>
-  </si>
-  <si>
-    <t>7155 4921 1818</t>
-  </si>
-  <si>
-    <t>6739 4294 0941</t>
-  </si>
-  <si>
-    <t>7314 0271 0551</t>
-  </si>
-  <si>
-    <t>6892 6235 4332</t>
-  </si>
-  <si>
-    <t>7259 8794 4260</t>
-  </si>
-  <si>
-    <t>9539 4568 7709</t>
-  </si>
-  <si>
-    <t>2701 7892 3673</t>
-  </si>
-  <si>
-    <t>2377 8474 0248</t>
+    <t>8724 3390 9124</t>
+  </si>
+  <si>
+    <t>9861 4149 3934</t>
+  </si>
+  <si>
+    <t>1406 5578 4541</t>
+  </si>
+  <si>
+    <t>2423 8155 5835</t>
+  </si>
+  <si>
+    <t>5776 9154 9476</t>
+  </si>
+  <si>
+    <t>7244 7326 9329</t>
+  </si>
+  <si>
+    <t>8621 8405 0116</t>
+  </si>
+  <si>
+    <t>5575 3872 4673</t>
+  </si>
+  <si>
+    <t>5511 4940 5042</t>
   </si>
   <si>
     <t>FITA BORDA SAFIRA 19MM X 20M - PERFIL PVC</t>
